--- a/templates/insurance.xlsx
+++ b/templates/insurance.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E9012B-5FF5-453C-84AF-63C73487EC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB9559B5-F8CA-4177-82BD-E8968649CDC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="9420" xr2:uid="{4D523641-14A1-4EF0-895D-9AF1757BA4C7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{4D523641-14A1-4EF0-895D-9AF1757BA4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$5:$G$17</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -572,10 +575,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{358F2A10-E55B-4918-B08E-ACFE03B0748A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I6:I7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -676,6 +682,6 @@
     <mergeCell ref="E6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>